--- a/biology/Médecine/Grande_artère_pancréatique/Grande_artère_pancréatique.xlsx
+++ b/biology/Médecine/Grande_artère_pancréatique/Grande_artère_pancréatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grande_art%C3%A8re_pancr%C3%A9atique</t>
+          <t>Grande_artère_pancréatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'anatomie humaine, la grande artère pancréatique est la plus grande artère qui alimente le pancréas. Elle provient du tronc cœliaque, de l'artère splénique ou bien de l'artère hépatique. Elle se divise en deux branches sur la face postérieure du pancréas : une pour la tête et une pour le corps[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'anatomie humaine, la grande artère pancréatique est la plus grande artère qui alimente le pancréas. Elle provient du tronc cœliaque, de l'artère splénique ou bien de l'artère hépatique. Elle se divise en deux branches sur la face postérieure du pancréas : une pour la tête et une pour le corps.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grande_art%C3%A8re_pancr%C3%A9atique</t>
+          <t>Grande_artère_pancréatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Incidence clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rarement, la grande artère pancréatique peut se rompre en tant que complication de la pancréatite chronique[2] ; c'est souvent fatal[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rarement, la grande artère pancréatique peut se rompre en tant que complication de la pancréatite chronique ; c'est souvent fatal.
 </t>
         </is>
       </c>
